--- a/UI/Files/Test.xlsx
+++ b/UI/Files/Test.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21328"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B6071CED-4543-48EA-90FA-8A8B4201348A}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5140A9C6-8073-4F8F-A1A0-EE7DD33E2B11}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -20,69 +20,188 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="21">
-  <si>
-    <t>OPT565247</t>
-  </si>
-  <si>
-    <t>drive tag is missing from vBricks- 450 OS NewPath</t>
-  </si>
-  <si>
-    <t>drive tag is missing from vBricks- 450 MF NewPath</t>
-  </si>
-  <si>
-    <t>drive tag is missing from vBricks- 450 Whatif</t>
-  </si>
-  <si>
-    <t>drive tag is missing from vBricks- 450 OS BU</t>
-  </si>
-  <si>
-    <t>drive tag is missing from vBricks- 450 MF BU</t>
-  </si>
-  <si>
-    <t>drive tag is missing from vBricks- 450 OS NewPath - refer OPT 565247  for step details.</t>
-  </si>
-  <si>
-    <t>drive tag is missing from vBricks- 450 MF NewPath- refer OPT 565247  for step details.</t>
-  </si>
-  <si>
-    <t>drive tag is missing from vBricks- 450 Whatif- refer OPT 565247  for step details.</t>
-  </si>
-  <si>
-    <t>drive tag is missing from vBricks- 450 OS BU- refer OPT 565247  for step details.</t>
-  </si>
-  <si>
-    <t>drive tag is missing from vBricks- 450 MF BU- refer OPT 565247  for step details.</t>
-  </si>
-  <si>
-    <t>drive tag is missing from vBricks- 850 OS NewPath</t>
-  </si>
-  <si>
-    <t>drive tag is missing from vBricks- 850 OS NewPath - refer OPT 565247  for step details.</t>
-  </si>
-  <si>
-    <t>drive tag is missing from vBricks- 850 MF NewPath</t>
-  </si>
-  <si>
-    <t>drive tag is missing from vBricks- 850 MF NewPath- refer OPT 565247  for step details.</t>
-  </si>
-  <si>
-    <t>drive tag is missing from vBricks- 850 Whatif</t>
-  </si>
-  <si>
-    <t>drive tag is missing from vBricks- 850 Whatif- refer OPT 565247  for step details.</t>
-  </si>
-  <si>
-    <t>drive tag is missing from vBricks- 850 OS BU</t>
-  </si>
-  <si>
-    <t>drive tag is missing from vBricks- 850 OS BU- refer OPT 565247  for step details.</t>
-  </si>
-  <si>
-    <t>drive tag is missing from vBricks- 850 MF BU</t>
-  </si>
-  <si>
-    <t>drive tag is missing from vBricks- 850 MF BU- refer OPT 565247  for step details.</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="26">
+  <si>
+    <t>All the validations required for Cloud Mobility</t>
+  </si>
+  <si>
+    <t>This testcase has all validations that are to be covered for 'Cloud mobility', These validations are applicable for all testcases in this feature.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">RR5350: Sizer support for Glider
+1. Display name is 'Cloud Mobility'
+2. 1 Slic of RainStorm E is added.
+3. 4 ports of 'GigE (IP)CLOUD-PORTS' are displayed in UI.
+4. Capacity impact of 190 Gb when 'Cloud mobility' is selected.
+5. Config XML tags:
+	&lt;ioModule&gt;
+		&lt;type&gt;
+			RAINSTORM-EG
+		&lt;/type&gt;
+		&lt;count&gt;
+			1
+		&lt;/count&gt;
+		&lt;mode&gt;
+			MM
+		&lt;/mode&gt;
+	&lt;/ioModule&gt;
+	&lt;Cloud&gt;
+		YES
+	&lt;/Cloud&gt;
+6. Input XML tags:
+	&lt;Slics&gt;
+		&lt;Num_CLOUD_RainstormE_Model&gt;
+			1
+		&lt;/Num_CLOUD_RainstormE_Model&gt;
+	&lt;/Slics&gt;
+</t>
+  </si>
+  <si>
+    <t>Verify IO Module and ports added with Cloud Mobility during new path</t>
+  </si>
+  <si>
+    <t>Size a new PowerMax scenario, verify IO Module and ports that should be added with Cloud mobility software.</t>
+  </si>
+  <si>
+    <t>Steps:
+1. Size a new PowerMax scenario, verify IO Module and ports that should be added with Cloud mobility software.
+Expected:
+1. Config XML tags:
+	&lt;ioModule&gt;
+		&lt;type&gt;
+			RAINSTORM-EG
+		&lt;/type&gt;
+		&lt;count&gt;
+			1
+		&lt;/count&gt;
+		&lt;mode&gt;
+			MM
+		&lt;/mode&gt;
+	&lt;/ioModule&gt;
+	&lt;Cloud&gt;
+		YES
+	&lt;/Cloud&gt;
+2. Input XML tags:
+	&lt;Slics&gt;
+		&lt;Num_CLOUD_RainstormE_Model&gt;
+			1
+		&lt;/Num_CLOUD_RainstormE_Model&gt;
+	&lt;/Slics&gt;</t>
+  </si>
+  <si>
+    <t>Verify IO Module and ports added with Cloud Mobility during BU.</t>
+  </si>
+  <si>
+    <t>Size a new PowerMax scenario, verify IO Module and ports that should be added with Cloud mobility software during BU.</t>
+  </si>
+  <si>
+    <t>Steps:
+1. Size a new PowerMax scenario, verify IO Module and ports that should be added with Cloud mobility software during BU.
+Expected:
+1. Config XML tags:
+	&lt;ioModule&gt;
+		&lt;type&gt;
+			RAINSTORM-EG
+		&lt;/type&gt;
+		&lt;count&gt;
+			1
+		&lt;/count&gt;
+		&lt;mode&gt;
+			MM
+		&lt;/mode&gt;
+	&lt;/ioModule&gt;
+	&lt;Cloud&gt;
+		YES
+	&lt;/Cloud&gt;
+2. Input XML tags:
+	&lt;Slics&gt;
+		&lt;Num_CLOUD_RainstormE_Model&gt;
+			1
+		&lt;/Num_CLOUD_RainstormE_Model&gt;
+	&lt;/Slics&gt;</t>
+  </si>
+  <si>
+    <t>Verify IO Module and ports added with Cloud Mobility during Bin Upgrade.</t>
+  </si>
+  <si>
+    <t>Size a new PowerMax scenario, verify IO Module and ports that should be added with Cloud mobility software during Bin upgrade.</t>
+  </si>
+  <si>
+    <t>Steps:
+1. Size a new PowerMax scenario, verify IO Module and ports that should be added with Cloud mobility software during Bin upgrade.
+Expected:
+1. Config XML tags:
+	&lt;ioModule&gt;
+		&lt;type&gt;
+			RAINSTORM-EG
+		&lt;/type&gt;
+		&lt;count&gt;
+			1
+		&lt;/count&gt;
+		&lt;mode&gt;
+			MM
+		&lt;/mode&gt;
+	&lt;/ioModule&gt;
+	&lt;Cloud&gt;
+		YES
+	&lt;/Cloud&gt;
+2. Input XML tags:
+	&lt;Slics&gt;
+		&lt;Num_CLOUD_RainstormE_Model&gt;
+			1
+		&lt;/Num_CLOUD_RainstormE_Model&gt;
+	&lt;/Slics&gt;</t>
+  </si>
+  <si>
+    <t>Verify IO Module and ports cannot be added/removed with Cloud Mobility during Bin Upgrade.</t>
+  </si>
+  <si>
+    <t>Size a new PowerMax scenario, verify IO Module and ports cannot be added/removed with Cloud mobility software during Bin upgrade.</t>
+  </si>
+  <si>
+    <t>Verify IO Module and ports cannot be added/removed with Cloud Mobility during Budgetary Upgrade.</t>
+  </si>
+  <si>
+    <t>Size a new PowerMax scenario, verify IO Module and ports cannot be added/removed with Cloud mobility software during Budgetary upgrade.</t>
+  </si>
+  <si>
+    <t>Verify Capacity Impact with Cloud Mobility during new path</t>
+  </si>
+  <si>
+    <t>Size a new PowerMax scenario, verify Capacity Impact that should be added with Cloud mobility software.</t>
+  </si>
+  <si>
+    <t>Steps:
+1. Size a new PowerMax scenario, verify Capacity Impact that should be added with Cloud mobility software.
+Expected:
+Capacity impact of 190 Gb when 'Cloud mobility' is selected.</t>
+  </si>
+  <si>
+    <t>Verify Capacity Impact with Cloud Mobility during BU.</t>
+  </si>
+  <si>
+    <t>Size a new PowerMax scenario, verify Capacity Impact that should be added with Cloud mobility software during BU.</t>
+  </si>
+  <si>
+    <t>Steps:
+1. Size a new PowerMax scenario, verify Capacity Impact that should be added with Cloud mobility software during BU.
+Expected:
+Capacity impact of 190 Gb when 'Cloud mobility' is selected.</t>
+  </si>
+  <si>
+    <t>Verify Capacity Impact with Cloud Mobility during Bin Upgrade.</t>
+  </si>
+  <si>
+    <t>Size a new PowerMax scenario, verify Capacity Impact that should be added with Cloud mobility software during Bin upgrade.</t>
+  </si>
+  <si>
+    <t>Steps:
+1. Size a new PowerMax scenario, verify Capacity Impact that should be added with Cloud mobility software during Bin upgrade.
+Expected:
+Capacity impact of 190 Gb when 'Cloud mobility' is selected.</t>
+  </si>
+  <si>
+    <t>Verify Input XMLs when sized with Cloud Mobilty for both new path and Upgrades</t>
   </si>
 </sst>
 </file>
@@ -133,7 +252,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -143,6 +262,9 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -427,361 +549,361 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:E45"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E10" sqref="A1:E10"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="C10" sqref="C10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="65.099999999999994" customHeight="1" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="65.150000000000006" customHeight="1" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="12.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="8.85546875" style="1"/>
-    <col min="3" max="3" width="57.85546875" style="3" customWidth="1"/>
-    <col min="4" max="4" width="47.140625" style="3" customWidth="1"/>
+    <col min="1" max="1" width="12.453125" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="8.81640625" style="1"/>
+    <col min="3" max="3" width="57.81640625" style="3" customWidth="1"/>
+    <col min="4" max="4" width="47.1796875" style="3" customWidth="1"/>
     <col min="5" max="5" width="43" style="3" customWidth="1"/>
-    <col min="6" max="16384" width="8.85546875" style="1"/>
+    <col min="6" max="16384" width="8.81640625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="65.099999999999994" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="2" t="s">
-        <v>0</v>
+    <row r="1" spans="1:5" ht="65.150000000000006" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A1" s="2">
+        <v>1</v>
       </c>
       <c r="B1" s="2">
         <v>1</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="E1" s="2" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5" ht="65.099999999999994" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="2" t="s">
-        <v>0</v>
+      <c r="E1" s="5" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" ht="65.150000000000006" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A2" s="2">
+        <v>2</v>
       </c>
       <c r="B2" s="2">
         <v>2</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="E2" s="2" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" ht="65.099999999999994" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="2" t="s">
-        <v>0</v>
+        <v>4</v>
+      </c>
+      <c r="E2" s="5" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" ht="65.150000000000006" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A3" s="2">
+        <v>3</v>
       </c>
       <c r="B3" s="2">
         <v>3</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="E3" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E3" s="5" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="4" spans="1:5" ht="65.099999999999994" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="2" t="s">
-        <v>0</v>
+    <row r="4" spans="1:5" ht="65.150000000000006" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A4" s="2">
+        <v>4</v>
       </c>
       <c r="B4" s="2">
         <v>4</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="E4" s="2" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" ht="65.099999999999994" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="2" t="s">
-        <v>0</v>
+        <v>10</v>
+      </c>
+      <c r="E4" s="5" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" ht="65.150000000000006" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A5" s="2">
+        <v>5</v>
       </c>
       <c r="B5" s="2">
         <v>5</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>5</v>
+        <v>12</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>5</v>
+        <v>13</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" ht="65.099999999999994" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="2" t="s">
-        <v>0</v>
+        <v>13</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" ht="65.150000000000006" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A6" s="2">
+        <v>6</v>
       </c>
       <c r="B6" s="2">
         <v>6</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" ht="65.099999999999994" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="2" t="s">
-        <v>0</v>
+        <v>15</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" ht="65.150000000000006" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A7" s="2">
+        <v>7</v>
       </c>
       <c r="B7" s="2">
         <v>7</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="E7" s="2" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5" ht="65.099999999999994" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="2" t="s">
-        <v>0</v>
+        <v>17</v>
+      </c>
+      <c r="E7" s="5" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" ht="65.150000000000006" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A8" s="2">
+        <v>8</v>
       </c>
       <c r="B8" s="2">
         <v>8</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="E8" s="2" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5" ht="65.099999999999994" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="2" t="s">
-        <v>0</v>
+        <v>20</v>
+      </c>
+      <c r="E8" s="5" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" ht="65.150000000000006" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A9" s="2">
+        <v>9</v>
       </c>
       <c r="B9" s="2">
         <v>9</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>17</v>
+        <v>22</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="E9" s="2" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5" ht="65.099999999999994" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="2" t="s">
-        <v>0</v>
+        <v>23</v>
+      </c>
+      <c r="E9" s="5" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" ht="65.150000000000006" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A10" s="2">
+        <v>10</v>
       </c>
       <c r="B10" s="2">
         <v>10</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>19</v>
+        <v>25</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>19</v>
+        <v>25</v>
       </c>
       <c r="E10" s="2" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5" ht="65.099999999999994" customHeight="1" x14ac:dyDescent="0.25">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" ht="65.150000000000006" customHeight="1" x14ac:dyDescent="0.35">
       <c r="C11" s="1"/>
       <c r="D11" s="1"/>
       <c r="E11" s="4"/>
     </row>
-    <row r="12" spans="1:5" ht="65.099999999999994" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:5" ht="65.150000000000006" customHeight="1" x14ac:dyDescent="0.35">
       <c r="C12" s="1"/>
       <c r="D12" s="1"/>
       <c r="E12" s="4"/>
     </row>
-    <row r="13" spans="1:5" ht="65.099999999999994" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:5" ht="65.150000000000006" customHeight="1" x14ac:dyDescent="0.35">
       <c r="C13" s="1"/>
       <c r="D13" s="1"/>
       <c r="E13" s="4"/>
     </row>
-    <row r="14" spans="1:5" ht="65.099999999999994" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:5" ht="65.150000000000006" customHeight="1" x14ac:dyDescent="0.35">
       <c r="C14" s="1"/>
       <c r="D14" s="1"/>
       <c r="E14" s="4"/>
     </row>
-    <row r="15" spans="1:5" ht="65.099999999999994" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:5" ht="65.150000000000006" customHeight="1" x14ac:dyDescent="0.35">
       <c r="C15" s="1"/>
       <c r="D15" s="1"/>
       <c r="E15" s="4"/>
     </row>
-    <row r="16" spans="1:5" ht="65.099999999999994" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:5" ht="65.150000000000006" customHeight="1" x14ac:dyDescent="0.35">
       <c r="C16" s="1"/>
       <c r="D16" s="1"/>
       <c r="E16" s="4"/>
     </row>
-    <row r="17" spans="3:5" ht="65.099999999999994" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="3:5" ht="65.150000000000006" customHeight="1" x14ac:dyDescent="0.35">
       <c r="C17" s="1"/>
       <c r="D17" s="1"/>
       <c r="E17" s="4"/>
     </row>
-    <row r="18" spans="3:5" ht="65.099999999999994" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="3:5" ht="65.150000000000006" customHeight="1" x14ac:dyDescent="0.35">
       <c r="C18" s="1"/>
       <c r="D18" s="1"/>
       <c r="E18" s="4"/>
     </row>
-    <row r="19" spans="3:5" ht="65.099999999999994" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="3:5" ht="65.150000000000006" customHeight="1" x14ac:dyDescent="0.35">
       <c r="C19" s="1"/>
       <c r="D19" s="1"/>
       <c r="E19" s="4"/>
     </row>
-    <row r="20" spans="3:5" ht="65.099999999999994" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="3:5" ht="65.150000000000006" customHeight="1" x14ac:dyDescent="0.35">
       <c r="C20" s="1"/>
       <c r="D20" s="1"/>
       <c r="E20" s="4"/>
     </row>
-    <row r="21" spans="3:5" ht="65.099999999999994" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="3:5" ht="65.150000000000006" customHeight="1" x14ac:dyDescent="0.35">
       <c r="C21" s="1"/>
       <c r="D21" s="1"/>
       <c r="E21" s="4"/>
     </row>
-    <row r="22" spans="3:5" ht="65.099999999999994" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="3:5" ht="65.150000000000006" customHeight="1" x14ac:dyDescent="0.35">
       <c r="C22" s="1"/>
       <c r="D22" s="1"/>
       <c r="E22" s="4"/>
     </row>
-    <row r="23" spans="3:5" ht="65.099999999999994" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="3:5" ht="65.150000000000006" customHeight="1" x14ac:dyDescent="0.35">
       <c r="C23" s="1"/>
       <c r="D23" s="1"/>
       <c r="E23" s="4"/>
     </row>
-    <row r="24" spans="3:5" ht="65.099999999999994" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="3:5" ht="65.150000000000006" customHeight="1" x14ac:dyDescent="0.35">
       <c r="C24" s="1"/>
       <c r="D24" s="1"/>
       <c r="E24" s="4"/>
     </row>
-    <row r="25" spans="3:5" ht="65.099999999999994" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="3:5" ht="65.150000000000006" customHeight="1" x14ac:dyDescent="0.35">
       <c r="C25" s="1"/>
       <c r="D25" s="1"/>
       <c r="E25" s="4"/>
     </row>
-    <row r="26" spans="3:5" ht="65.099999999999994" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="3:5" ht="65.150000000000006" customHeight="1" x14ac:dyDescent="0.35">
       <c r="C26" s="1"/>
       <c r="D26" s="1"/>
       <c r="E26" s="4"/>
     </row>
-    <row r="27" spans="3:5" ht="65.099999999999994" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="3:5" ht="65.150000000000006" customHeight="1" x14ac:dyDescent="0.35">
       <c r="C27" s="1"/>
       <c r="D27" s="1"/>
       <c r="E27" s="4"/>
     </row>
-    <row r="28" spans="3:5" ht="65.099999999999994" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="3:5" ht="65.150000000000006" customHeight="1" x14ac:dyDescent="0.35">
       <c r="C28" s="1"/>
       <c r="D28" s="1"/>
       <c r="E28" s="4"/>
     </row>
-    <row r="29" spans="3:5" ht="65.099999999999994" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="29" spans="3:5" ht="65.150000000000006" customHeight="1" x14ac:dyDescent="0.35">
       <c r="C29" s="1"/>
       <c r="D29" s="1"/>
       <c r="E29" s="4"/>
     </row>
-    <row r="30" spans="3:5" ht="65.099999999999994" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="30" spans="3:5" ht="65.150000000000006" customHeight="1" x14ac:dyDescent="0.35">
       <c r="C30" s="1"/>
       <c r="D30" s="1"/>
       <c r="E30" s="4"/>
     </row>
-    <row r="31" spans="3:5" ht="65.099999999999994" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="31" spans="3:5" ht="65.150000000000006" customHeight="1" x14ac:dyDescent="0.35">
       <c r="C31" s="1"/>
       <c r="D31" s="1"/>
       <c r="E31" s="4"/>
     </row>
-    <row r="32" spans="3:5" ht="65.099999999999994" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="32" spans="3:5" ht="65.150000000000006" customHeight="1" x14ac:dyDescent="0.35">
       <c r="C32" s="1"/>
       <c r="D32" s="1"/>
       <c r="E32" s="4"/>
     </row>
-    <row r="33" spans="3:5" ht="65.099999999999994" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="33" spans="3:5" ht="65.150000000000006" customHeight="1" x14ac:dyDescent="0.35">
       <c r="C33" s="1"/>
       <c r="D33" s="1"/>
       <c r="E33" s="4"/>
     </row>
-    <row r="34" spans="3:5" ht="65.099999999999994" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="34" spans="3:5" ht="65.150000000000006" customHeight="1" x14ac:dyDescent="0.35">
       <c r="C34" s="1"/>
       <c r="D34" s="1"/>
       <c r="E34" s="4"/>
     </row>
-    <row r="35" spans="3:5" ht="65.099999999999994" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="35" spans="3:5" ht="65.150000000000006" customHeight="1" x14ac:dyDescent="0.35">
       <c r="C35" s="1"/>
       <c r="D35" s="1"/>
       <c r="E35" s="4"/>
     </row>
-    <row r="36" spans="3:5" ht="65.099999999999994" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="36" spans="3:5" ht="65.150000000000006" customHeight="1" x14ac:dyDescent="0.35">
       <c r="C36" s="1"/>
       <c r="D36" s="1"/>
       <c r="E36" s="4"/>
     </row>
-    <row r="37" spans="3:5" ht="65.099999999999994" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="37" spans="3:5" ht="65.150000000000006" customHeight="1" x14ac:dyDescent="0.35">
       <c r="C37" s="1"/>
       <c r="D37" s="1"/>
       <c r="E37" s="4"/>
     </row>
-    <row r="38" spans="3:5" ht="65.099999999999994" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="38" spans="3:5" ht="65.150000000000006" customHeight="1" x14ac:dyDescent="0.35">
       <c r="C38" s="1"/>
       <c r="D38" s="1"/>
       <c r="E38" s="4"/>
     </row>
-    <row r="39" spans="3:5" ht="65.099999999999994" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="39" spans="3:5" ht="65.150000000000006" customHeight="1" x14ac:dyDescent="0.35">
       <c r="C39" s="1"/>
       <c r="D39" s="1"/>
       <c r="E39" s="4"/>
     </row>
-    <row r="40" spans="3:5" ht="65.099999999999994" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="40" spans="3:5" ht="65.150000000000006" customHeight="1" x14ac:dyDescent="0.35">
       <c r="C40" s="1"/>
       <c r="D40" s="1"/>
       <c r="E40" s="4"/>
     </row>
-    <row r="41" spans="3:5" ht="65.099999999999994" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="41" spans="3:5" ht="65.150000000000006" customHeight="1" x14ac:dyDescent="0.35">
       <c r="C41" s="1"/>
       <c r="D41" s="1"/>
       <c r="E41" s="4"/>
     </row>
-    <row r="42" spans="3:5" ht="65.099999999999994" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="42" spans="3:5" ht="65.150000000000006" customHeight="1" x14ac:dyDescent="0.35">
       <c r="C42" s="1"/>
       <c r="D42" s="1"/>
       <c r="E42" s="4"/>
     </row>
-    <row r="43" spans="3:5" ht="65.099999999999994" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="43" spans="3:5" ht="65.150000000000006" customHeight="1" x14ac:dyDescent="0.35">
       <c r="C43" s="1"/>
       <c r="D43" s="1"/>
       <c r="E43" s="4"/>
     </row>
-    <row r="44" spans="3:5" ht="65.099999999999994" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="44" spans="3:5" ht="65.150000000000006" customHeight="1" x14ac:dyDescent="0.35">
       <c r="C44" s="1"/>
       <c r="D44" s="1"/>
       <c r="E44" s="4"/>
     </row>
-    <row r="45" spans="3:5" ht="65.099999999999994" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="45" spans="3:5" ht="65.150000000000006" customHeight="1" x14ac:dyDescent="0.35">
       <c r="C45" s="1"/>
       <c r="D45" s="1"/>
       <c r="E45" s="4"/>
